--- a/src/attributions/attributions_saliency_traj_407.xlsx
+++ b/src/attributions/attributions_saliency_traj_407.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG8"/>
+  <dimension ref="A1:GG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06307228654623032</v>
+        <v>0.02525671571493149</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2256941050291061</v>
+        <v>0.3057905733585358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1240025833249092</v>
+        <v>0.03118367865681648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1123790889978409</v>
+        <v>0.20915886759758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2442706823348999</v>
+        <v>0.006038784980773926</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08159920573234558</v>
+        <v>0.07093846052885056</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1242018789052963</v>
+        <v>0.01482649520039558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2214556336402893</v>
+        <v>0.0180016178637743</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02735266834497452</v>
+        <v>0.04271698370575905</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02804890461266041</v>
+        <v>0.03606494516134262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1166225597262383</v>
+        <v>0.2342743128538132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07031038403511047</v>
+        <v>0.01292692217975855</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1869387179613113</v>
+        <v>0.1942909806966782</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2086664140224457</v>
+        <v>0.01216321624815464</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04256076738238335</v>
+        <v>0.04789460450410843</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1011365205049515</v>
+        <v>0.02058569341897964</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2271789163351059</v>
+        <v>0.04162141680717468</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09276287257671356</v>
+        <v>0.05077425017952919</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06967804580926895</v>
+        <v>0.02476776763796806</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006374429911375046</v>
+        <v>0.03934841230511665</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004918828140944242</v>
+        <v>0.004087402485311031</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08640868961811066</v>
+        <v>0.03379236906766891</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1199278980493546</v>
+        <v>0.01767688803374767</v>
       </c>
       <c r="X2" t="n">
-        <v>0.07175628840923309</v>
+        <v>0.01487808674573898</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01834702119231224</v>
+        <v>0.01290125213563442</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01235449500381947</v>
+        <v>0.04093416407704353</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0747835785150528</v>
+        <v>0.02489522844552994</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06796640157699585</v>
+        <v>0.03662816435098648</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01430253591388464</v>
+        <v>0.03551101684570312</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.03816213086247444</v>
+        <v>0.03753918409347534</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.1215704008936882</v>
+        <v>0.04862003028392792</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03557538613677025</v>
+        <v>0.00781997200101614</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.05371055752038956</v>
+        <v>0.001176564022898674</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05048741400241852</v>
+        <v>0.001310250838287175</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.005010724999010563</v>
+        <v>0.001137940213084221</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0174171719700098</v>
+        <v>0.02066989615559578</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.007101735100150108</v>
+        <v>0.00701890466734767</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1089944690465927</v>
+        <v>0.03631986677646637</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.006293934304267168</v>
+        <v>0.007257694378495216</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.04595806449651718</v>
+        <v>0.005506574176251888</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1255606114864349</v>
+        <v>0.001214023097418249</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.02320103161036968</v>
+        <v>0.04454809054732323</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001866148901171982</v>
+        <v>0.001209230162203312</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0263543576002121</v>
+        <v>0.02092359587550163</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.009982921183109283</v>
+        <v>0.03061426617205143</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.07660078257322311</v>
+        <v>0.03445687890052795</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0211366843432188</v>
+        <v>0.1363499313592911</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1310954689979553</v>
+        <v>0.03614398464560509</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.07064220309257507</v>
+        <v>0.06056914478540421</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1187724322080612</v>
+        <v>0.02770985290408134</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1470931321382523</v>
+        <v>0.06928833574056625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04114735499024391</v>
+        <v>0.01651714369654655</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.1408659070730209</v>
+        <v>0.003688162192702293</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0107138380408287</v>
+        <v>0.06614922732114792</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.03476711362600327</v>
+        <v>0.01445811428129673</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.04289818927645683</v>
+        <v>0.08259683102369308</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.001608787570148706</v>
+        <v>0.05971038341522217</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1535084247589111</v>
+        <v>0.06907114386558533</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.05287689343094826</v>
+        <v>0.03042140603065491</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.07251115143299103</v>
+        <v>0.0004756519047077745</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.09520094841718674</v>
+        <v>0.02292391657829285</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01510242000222206</v>
+        <v>0.03973215818405151</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.03826287388801575</v>
+        <v>0.003606543410569429</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.07484102249145508</v>
+        <v>0.01616103388369083</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.007355055771768093</v>
+        <v>0.008475165814161301</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.03771866485476494</v>
+        <v>0.02823065221309662</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0129309743642807</v>
+        <v>0.01978664472699165</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04552210122346878</v>
+        <v>0.009705984033644199</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01142642740160227</v>
+        <v>0.007621523458510637</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.04622484371066093</v>
+        <v>0.01240385323762894</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01615989953279495</v>
+        <v>0.01522925216704607</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.03199578449130058</v>
+        <v>0.008751558139920235</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.07730834931135178</v>
+        <v>0.04514497518539429</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.02333679050207138</v>
+        <v>0.0853833481669426</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.02393919415771961</v>
+        <v>0.02603939548134804</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.06500205397605896</v>
+        <v>0.05195251479744911</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0914541482925415</v>
+        <v>0.000464485608972609</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02008733153343201</v>
+        <v>0.002474699169397354</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.001656981185078621</v>
+        <v>0.001001858152449131</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.08997764438390732</v>
+        <v>0.02662379294633865</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.001747916452586651</v>
+        <v>0.05399547889828682</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02429100871086121</v>
+        <v>0.007361195515841246</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.07770208269357681</v>
+        <v>0.0462510958313942</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01503285672515631</v>
+        <v>0.02358756959438324</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.04679132625460625</v>
+        <v>0.03694109618663788</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.05601036548614502</v>
+        <v>0.01070003490895033</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.02020560204982758</v>
+        <v>0.003297209972515702</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.01065931841731071</v>
+        <v>0.01675610616803169</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.03775609657168388</v>
+        <v>0.0001630028709769249</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0003586672246456146</v>
+        <v>0.01119724847376347</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.08345711976289749</v>
+        <v>0.0214322954416275</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02594621479511261</v>
+        <v>0.009822678752243519</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.005154054146260023</v>
+        <v>0.0222790539264679</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.08981756865978241</v>
+        <v>0.007588602602481842</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.07221177220344543</v>
+        <v>0.002518211724236608</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.04357803985476494</v>
+        <v>0.03354571759700775</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.02518251538276672</v>
+        <v>0.03480769693851471</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01641971617937088</v>
+        <v>0.05553889647126198</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.05580969527363777</v>
+        <v>0.006108356639742851</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.02575673162937164</v>
+        <v>0.003666700562462211</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.09846267104148865</v>
+        <v>0.05104656890034676</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01071672327816486</v>
+        <v>0.02995595335960388</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02082421816885471</v>
+        <v>0.04314450547099113</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.07148002088069916</v>
+        <v>0.0107633899897337</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.01970182359218597</v>
+        <v>0.001367162331007421</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.003106038551777601</v>
+        <v>0.01792280375957489</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.03750662878155708</v>
+        <v>0.01085163559764624</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0005262047052383423</v>
+        <v>0.004861184395849705</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02932692505419254</v>
+        <v>0.01354443188756704</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.04806439578533173</v>
+        <v>0.1260483413934708</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0548652708530426</v>
+        <v>0.01489324402064085</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.06352271884679794</v>
+        <v>0.1205721348524094</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.005544887855648994</v>
+        <v>0.005355739500373602</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1292123645544052</v>
+        <v>0.02717752754688263</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.007392596453428268</v>
+        <v>0.0248853899538517</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01215653028339148</v>
+        <v>0.02379694208502769</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.05477266758680344</v>
+        <v>0.003940485417842865</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.06616413593292236</v>
+        <v>0.01422508247196674</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.008187310770153999</v>
+        <v>0.02702413126826286</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0202092919498682</v>
+        <v>0.007076963782310486</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.03612849116325378</v>
+        <v>0.02957305125892162</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02487238869071007</v>
+        <v>0.03310137614607811</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.06930678337812424</v>
+        <v>0.02972161769866943</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.01271022297441959</v>
+        <v>0.01433215383440256</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.04083948954939842</v>
+        <v>0.009767681360244751</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.002534168306738138</v>
+        <v>0.03224871680140495</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01528798416256905</v>
+        <v>0.00394620792940259</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.02771518006920815</v>
+        <v>0.03734543547034264</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00405434425920248</v>
+        <v>0.01414686068892479</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.08369971811771393</v>
+        <v>0.03691274300217628</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00977675523608923</v>
+        <v>0.01602735556662083</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.02000053413212299</v>
+        <v>0.02803500182926655</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00140185235068202</v>
+        <v>0.01127615571022034</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.02396791242063046</v>
+        <v>0.01497232168912888</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.02336840704083443</v>
+        <v>0.004653594922274351</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.008328340947628021</v>
+        <v>0.001934215659275651</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.06404821574687958</v>
+        <v>0.03113478422164917</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01113763079047203</v>
+        <v>0.02684664167463779</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.02723482996225357</v>
+        <v>0.006524722557514906</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.1118618547916412</v>
+        <v>0.0261426717042923</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.02896037138998508</v>
+        <v>0.005817596334964037</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.006385609041899443</v>
+        <v>0.002769959159195423</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0004549426957964897</v>
+        <v>0.009653367102146149</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.002603397704660892</v>
+        <v>0.002773966640233994</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00960092805325985</v>
+        <v>0.002328015398234129</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.07108618319034576</v>
+        <v>0.01544294320046902</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.06090893596410751</v>
+        <v>0.03975814953446388</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.05887221917510033</v>
+        <v>0.03259808197617531</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.06843847781419754</v>
+        <v>0.01132812444120646</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02956986054778099</v>
+        <v>0.05780117958784103</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02315177954733372</v>
+        <v>0.03344286978244781</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.009073293767869473</v>
+        <v>0.0005563083104789257</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0372978001832962</v>
+        <v>0.01486638002097607</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.03928148373961449</v>
+        <v>0.00196507666260004</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.07491239905357361</v>
+        <v>0.04777132719755173</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.02411719597876072</v>
+        <v>0.02532540261745453</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.03414886444807053</v>
+        <v>0.04079544916749001</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.07046271860599518</v>
+        <v>0.01298094261437654</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.01471512392163277</v>
+        <v>0.002210918115451932</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.008814591914415359</v>
+        <v>0.02767235785722733</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.03604079410433769</v>
+        <v>0.01119020581245422</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0004214709624648094</v>
+        <v>0.01275845989584923</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02615406922996044</v>
+        <v>0.01266332156956196</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.1074746251106262</v>
+        <v>0.01595821604132652</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.02862382493913174</v>
+        <v>0.008584605529904366</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.04750537499785423</v>
+        <v>0.005401907488703728</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0569743737578392</v>
+        <v>0.02132865786552429</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02803924679756165</v>
+        <v>0.006303821224719286</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01528600044548512</v>
+        <v>0.01119671016931534</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0289100743830204</v>
+        <v>0.003547368105500937</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0216099601238966</v>
+        <v>0.03132900968194008</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05072824656963348</v>
+        <v>0.00746630784124136</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.03862964361906052</v>
+        <v>0.02017194777727127</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.01092578191310167</v>
+        <v>0.05150183290243149</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.2093559205532074</v>
+        <v>0.002788781421259046</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1261764019727707</v>
+        <v>0.02602851204574108</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.1354048997163773</v>
+        <v>0.0178700964897871</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01091998443007469</v>
+        <v>0.0001262491568922997</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.08919930458068848</v>
+        <v>0.02445056289434433</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01593628898262978</v>
+        <v>0.01016621757298708</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.03275071457028389</v>
+        <v>0.02519284188747406</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.08112400770187378</v>
+        <v>0.004548451863229275</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.005627554375678301</v>
+        <v>0.002119178418070078</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.08474055677652359</v>
+        <v>0.008503132499754429</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.05461247265338898</v>
+        <v>0.07728421688079834</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02473633736371994</v>
+        <v>0.03271722048521042</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.009479469619691372</v>
+        <v>0.08264575898647308</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01569967716932297</v>
+        <v>0.01053020171821117</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.01555719785392284</v>
+        <v>0.003000307828187943</v>
       </c>
     </row>
     <row r="3">
@@ -2142,2846 +2142,3984 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.07175986468791962</v>
+        <v>0.4709700644016266</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01543931942433119</v>
+        <v>0.2016991376876831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7635275721549988</v>
+        <v>0.03202271834015846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4204526841640472</v>
+        <v>0.00597434863448143</v>
       </c>
       <c r="E4" t="n">
-        <v>1.949922919273376</v>
+        <v>0.07932505011558533</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3677985966205597</v>
+        <v>0.06245521456003189</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05484652519226074</v>
+        <v>0.09948410093784332</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1740982532501221</v>
+        <v>0.01684994623064995</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8681207895278931</v>
+        <v>0.05284624919295311</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4601497650146484</v>
+        <v>0.434141218662262</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1268746107816696</v>
+        <v>0.01855713129043579</v>
       </c>
       <c r="L4" t="n">
-        <v>1.124200582504272</v>
+        <v>0.07451280951499939</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6034728288650513</v>
+        <v>0.07276269048452377</v>
       </c>
       <c r="N4" t="n">
-        <v>1.333831071853638</v>
+        <v>0.2323605120182037</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01187989115715027</v>
+        <v>0.2020816653966904</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0868358314037323</v>
+        <v>0.1809896528720856</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2244208753108978</v>
+        <v>0.07816124707460403</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8619996905326843</v>
+        <v>0.1404718905687332</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1369479596614838</v>
+        <v>0.05190399661660194</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3151648342609406</v>
+        <v>0.01979807391762733</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2269121259450912</v>
+        <v>0.05428474768996239</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3607280552387238</v>
+        <v>0.001351107843220234</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2250363528728485</v>
+        <v>0.2440003454685211</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1679639369249344</v>
+        <v>0.002008885145187378</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01267528720200062</v>
+        <v>0.1383571922779083</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08195885270833969</v>
+        <v>0.1016595065593719</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06343753635883331</v>
+        <v>0.07024931907653809</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.09352833032608032</v>
+        <v>0.02701808325946331</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1345235407352448</v>
+        <v>0.02405473589897156</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05717030912637711</v>
+        <v>0.04156529903411865</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3214661478996277</v>
+        <v>0.03924600034952164</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3362658619880676</v>
+        <v>0.1953378170728683</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6264028549194336</v>
+        <v>0.05520999431610107</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0183238610625267</v>
+        <v>0.07290668040513992</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.3262088000774384</v>
+        <v>0.1386238485574722</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.3465663194656372</v>
+        <v>0.06087109446525574</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1977463811635971</v>
+        <v>0.1233249604701996</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1719467490911484</v>
+        <v>0.04770052433013916</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2821300327777863</v>
+        <v>0.0452154204249382</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.05897520110011101</v>
+        <v>0.09822052717208862</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2286634594202042</v>
+        <v>0.1671804785728455</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.4956279397010803</v>
+        <v>0.05117025971412659</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.006197672337293625</v>
+        <v>0.06870473176240921</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.2553009390830994</v>
+        <v>0.02752308547496796</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1034034043550491</v>
+        <v>0.01761353015899658</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1803058832883835</v>
+        <v>0.2790559828281403</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1228014528751373</v>
+        <v>0.1087625175714493</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.6320531964302063</v>
+        <v>0.03428378328680992</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.06397734582424164</v>
+        <v>0.1049751788377762</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.5274699926376343</v>
+        <v>0.002321689389646053</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.366008073091507</v>
+        <v>0.07108242064714432</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.341324120759964</v>
+        <v>0.1406052857637405</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1696682274341583</v>
+        <v>0.03519272804260254</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.4640809893608093</v>
+        <v>0.0220874547958374</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.09914229810237885</v>
+        <v>0.09293414652347565</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.197595939040184</v>
+        <v>0.2132397294044495</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01911358535289764</v>
+        <v>0.04188984259963036</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1747203022241592</v>
+        <v>0.2203936129808426</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.549756646156311</v>
+        <v>0.07902456820011139</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.06292398273944855</v>
+        <v>0.05985074490308762</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01458565890789032</v>
+        <v>0.1321475058794022</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.2860720753669739</v>
+        <v>0.2094674110412598</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.04237570613622665</v>
+        <v>0.06151062995195389</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.04508958756923676</v>
+        <v>0.04241172224283218</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.08213827013969421</v>
+        <v>0.157427966594696</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.7095164060592651</v>
+        <v>0.09105382859706879</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.156732514500618</v>
+        <v>0.04183560609817505</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2796480059623718</v>
+        <v>0.1557870656251907</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1331139802932739</v>
+        <v>0.1857731342315674</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0522601306438446</v>
+        <v>0.01157956290990114</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.2224542796611786</v>
+        <v>0.06182169169187546</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.05582734197378159</v>
+        <v>0.0278558861464262</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.2888643443584442</v>
+        <v>0.1779080927371979</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.007207337766885757</v>
+        <v>0.02914532832801342</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.121533140540123</v>
+        <v>0.02030432969331741</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.02936544269323349</v>
+        <v>0.1447626799345016</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.094135880470276</v>
+        <v>0.1467798203229904</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.2806625962257385</v>
+        <v>0.03617433831095695</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.1707441210746765</v>
+        <v>0.02947024255990982</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0151076465845108</v>
+        <v>0.008124749176204205</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.3742930889129639</v>
+        <v>0.04016617685556412</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.07795120775699615</v>
+        <v>0.09110406041145325</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.2845597863197327</v>
+        <v>0.09211382269859314</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.1474436372518539</v>
+        <v>0.003257917705923319</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0456232875585556</v>
+        <v>0.06580334901809692</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.3604271709918976</v>
+        <v>0.006697865668684244</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.04093171656131744</v>
+        <v>0.04756949096918106</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.01870600879192352</v>
+        <v>0.01453998684883118</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.2040984034538269</v>
+        <v>0.1046220287680626</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.08591034263372421</v>
+        <v>0.001548677682876587</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.1308636516332626</v>
+        <v>0.05705839022994041</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.5243546962738037</v>
+        <v>0.009606471285223961</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.01125993579626083</v>
+        <v>0.09404442459344864</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.133527934551239</v>
+        <v>0.006394602358341217</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.2334946691989899</v>
+        <v>0.1420347988605499</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.1557372659444809</v>
+        <v>0.1639234572649002</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1722513288259506</v>
+        <v>0.03760125488042831</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.3043945133686066</v>
+        <v>0.06936116516590118</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.3447007238864899</v>
+        <v>0.007526887580752373</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.05391339212656021</v>
+        <v>0.08566788583993912</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.2604314684867859</v>
+        <v>0.09317930787801743</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.2081325352191925</v>
+        <v>0.005090073682367802</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.04446398466825485</v>
+        <v>0.02494385838508606</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.4359333217144012</v>
+        <v>0.01116307452321053</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0853520929813385</v>
+        <v>0.01441565249115229</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.1069730520248413</v>
+        <v>0.00460260733962059</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.1562261134386063</v>
+        <v>0.1023150458931923</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.1330017000436783</v>
+        <v>0.02206237614154816</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.1613464057445526</v>
+        <v>0.1015605106949806</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.7743906378746033</v>
+        <v>0.02911977469921112</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.421188473701477</v>
+        <v>0.0119766928255558</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.02333015203475952</v>
+        <v>0.2723936140537262</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.8212324380874634</v>
+        <v>0.04372838884592056</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.2166379690170288</v>
+        <v>0.1760881841182709</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.5202684998512268</v>
+        <v>0.08871746808290482</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.1393398940563202</v>
+        <v>0.1624301075935364</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.3798351287841797</v>
+        <v>0.0004391474649310112</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.03351107239723206</v>
+        <v>0.06786587834358215</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.03284797072410583</v>
+        <v>0.007518717553466558</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.1271060407161713</v>
+        <v>0.02282924577593803</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.105587050318718</v>
+        <v>0.05375398695468903</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.4301947355270386</v>
+        <v>0.03607792034745216</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.02967774868011475</v>
+        <v>0.04758702218532562</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.06514230370521545</v>
+        <v>0.1212070882320404</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.4157096743583679</v>
+        <v>0.1628439277410507</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2344899773597717</v>
+        <v>0.04635782912373543</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.04352719336748123</v>
+        <v>0.04633720964193344</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.3038597106933594</v>
+        <v>0.1447810083627701</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.002416503615677357</v>
+        <v>0.02376296557486057</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.1052026078104973</v>
+        <v>0.05801358446478844</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.008942171931266785</v>
+        <v>0.130903959274292</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.2594411075115204</v>
+        <v>0.04646004363894463</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.05604612454771996</v>
+        <v>0.003224269486963749</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.08628986775875092</v>
+        <v>0.1563073545694351</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.2254026681184769</v>
+        <v>0.0282893069088459</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.1784900426864624</v>
+        <v>0.08721115440130234</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.1879521161317825</v>
+        <v>0.09019505232572556</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.2644599080085754</v>
+        <v>0.02040327526628971</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.08861453831195831</v>
+        <v>0.03490646183490753</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.2998029887676239</v>
+        <v>0.04341801628470421</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.5471242666244507</v>
+        <v>0.003962857648730278</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.05897397547960281</v>
+        <v>0.005375485867261887</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.002906398847699165</v>
+        <v>0.03854865580797195</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.1182617917656898</v>
+        <v>0.009114492684602737</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.1620458364486694</v>
+        <v>0.1143855899572372</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.4536008238792419</v>
+        <v>0.06076596304774284</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1733982563018799</v>
+        <v>0.04363085329532623</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.04538043588399887</v>
+        <v>0.004344120621681213</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05097853392362595</v>
+        <v>0.08840898424386978</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.002133235335350037</v>
+        <v>0.0135217010974884</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.31707563996315</v>
+        <v>0.09574328362941742</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.1580663919448853</v>
+        <v>0.106278270483017</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.01624130271375179</v>
+        <v>0.06740310788154602</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.1075420379638672</v>
+        <v>0.1027709394693375</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2430514395236969</v>
+        <v>0.0556568019092083</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.2091022878885269</v>
+        <v>0.005483398679643869</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.05357061699032784</v>
+        <v>0.04416259005665779</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.3306331038475037</v>
+        <v>0.01228119339793921</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.04132132232189178</v>
+        <v>0.04277031123638153</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.03620269149541855</v>
+        <v>0.01632390357553959</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.1809009909629822</v>
+        <v>0.1027798503637314</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.1334674060344696</v>
+        <v>0.02169610373675823</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.06045869365334511</v>
+        <v>0.1051431149244308</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.1792198717594147</v>
+        <v>0.08369869738817215</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.1020018979907036</v>
+        <v>0.09431827068328857</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.005890622735023499</v>
+        <v>0.005860641598701477</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.2496713101863861</v>
+        <v>0.08313753455877304</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.1353632211685181</v>
+        <v>0.02625519409775734</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.2054066956043243</v>
+        <v>0.03210621327161789</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.4477772116661072</v>
+        <v>0.02480577677488327</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.1457080394029617</v>
+        <v>0.009348150342702866</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.1266741901636124</v>
+        <v>0.2256025671958923</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.09066055715084076</v>
+        <v>0.05891487002372742</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.03726622834801674</v>
+        <v>0.0001479904167354107</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.06044197082519531</v>
+        <v>0.119221068918705</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.28282630443573</v>
+        <v>0.2285601198673248</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.1803876310586929</v>
+        <v>0.05755100026726723</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.2445754557847977</v>
+        <v>0.1113178431987762</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.1750033497810364</v>
+        <v>0.02468210458755493</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.06967481970787048</v>
+        <v>0.01982459798455238</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.1373509466648102</v>
+        <v>0.0309160053730011</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.04896190762519836</v>
+        <v>0.00488705188035965</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.09819376468658447</v>
+        <v>0.1309687346220016</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.001076981425285339</v>
+        <v>0.05401292815804482</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.2473958730697632</v>
+        <v>0.1879600137472153</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.3520402312278748</v>
+        <v>0.07399698346853256</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.03749381378293037</v>
+        <v>0.003435853868722916</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.2034725993871689</v>
+        <v>0.09873493015766144</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.03054332733154297</v>
+        <v>0.1261413544416428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.270490407943726</v>
+        <v>0.1569704860448837</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1147249042987823</v>
+        <v>0.8717491030693054</v>
       </c>
       <c r="C5" t="n">
-        <v>1.545139789581299</v>
+        <v>0.1020403504371643</v>
       </c>
       <c r="D5" t="n">
-        <v>1.200407385826111</v>
+        <v>0.3895395696163177</v>
       </c>
       <c r="E5" t="n">
-        <v>2.266808271408081</v>
+        <v>0.2346254885196686</v>
       </c>
       <c r="F5" t="n">
-        <v>0.972565233707428</v>
+        <v>0.3080594837665558</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0677541047334671</v>
+        <v>0.1124903485178947</v>
       </c>
       <c r="H5" t="n">
-        <v>1.419121503829956</v>
+        <v>0.06213546544313431</v>
       </c>
       <c r="I5" t="n">
-        <v>3.270373821258545</v>
+        <v>0.02638521604239941</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005012422800064087</v>
+        <v>0.1515984833240509</v>
       </c>
       <c r="K5" t="n">
-        <v>0.662021279335022</v>
+        <v>0.6188448667526245</v>
       </c>
       <c r="L5" t="n">
-        <v>1.824888586997986</v>
+        <v>0.02650029398500919</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1209585890173912</v>
+        <v>0.301543653011322</v>
       </c>
       <c r="N5" t="n">
-        <v>3.044321775436401</v>
+        <v>0.3195295333862305</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1377425938844681</v>
+        <v>0.344221830368042</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77864670753479</v>
+        <v>0.1598226875066757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.390054941177368</v>
+        <v>0.1319735944271088</v>
       </c>
       <c r="R5" t="n">
-        <v>3.308106660842896</v>
+        <v>0.1118620783090591</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005620364099740982</v>
+        <v>0.02380799874663353</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8914368748664856</v>
+        <v>0.1034996956586838</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1592124700546265</v>
+        <v>0.01725424826145172</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2775451838970184</v>
+        <v>0.1047713905572891</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6757869124412537</v>
+        <v>0.08518870919942856</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2412683814764023</v>
+        <v>0.1302136927843094</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04285957664251328</v>
+        <v>0.138397753238678</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3926624059677124</v>
+        <v>0.07026781886816025</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3344374001026154</v>
+        <v>0.08340154588222504</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7552438378334045</v>
+        <v>0.01363168656826019</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3140009045600891</v>
+        <v>0.1022683531045914</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6528841257095337</v>
+        <v>0.01540394965559244</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6603318452835083</v>
+        <v>0.02492907084524632</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9487965106964111</v>
+        <v>0.07069890946149826</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1190637275576591</v>
+        <v>0.05604390054941177</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.3782832622528076</v>
+        <v>0.07779914140701294</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.139136910438538</v>
+        <v>0.01917487382888794</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7832822203636169</v>
+        <v>0.07079008221626282</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1570474356412888</v>
+        <v>0.06983849406242371</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.145845353603363</v>
+        <v>0.1646854132413864</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02399829030036926</v>
+        <v>0.06525734066963196</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.09828709065914154</v>
+        <v>0.04225511476397514</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7013527750968933</v>
+        <v>0.06142458692193031</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.105937242507935</v>
+        <v>0.1266049742698669</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.08383940160274506</v>
+        <v>0.04180967807769775</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05891861766576767</v>
+        <v>0.0225818008184433</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.2027551084756851</v>
+        <v>0.09120577573776245</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6669098734855652</v>
+        <v>0.08232375234365463</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.2852556109428406</v>
+        <v>0.5760775208473206</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.732101440429688</v>
+        <v>0.08636416494846344</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.5783535242080688</v>
+        <v>0.1751153916120529</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.056991457939148</v>
+        <v>0.09445145726203918</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.132981777191162</v>
+        <v>0.1041301414370537</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.1487086862325668</v>
+        <v>0.02845323830842972</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.067354321479797</v>
+        <v>0.06353664398193359</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.332746982574463</v>
+        <v>0.1277446299791336</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.2074018269777298</v>
+        <v>0.08741531521081924</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.192934438586235</v>
+        <v>0.1287501156330109</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.3258274793624878</v>
+        <v>0.111552506685257</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.6821826100349426</v>
+        <v>0.01712564937770367</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.5657479763031006</v>
+        <v>0.1874420344829559</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.7897331118583679</v>
+        <v>0.1341578662395477</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.1024697348475456</v>
+        <v>0.09765317291021347</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.3848428130149841</v>
+        <v>0.01777536794543266</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.4191011786460876</v>
+        <v>0.03935350105166435</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.239216610789299</v>
+        <v>0.09471018612384796</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01089283637702465</v>
+        <v>0.03258252516388893</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.198288157582283</v>
+        <v>0.0276958029717207</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.08005838841199875</v>
+        <v>0.09325698018074036</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.7058715224266052</v>
+        <v>0.01657197624444962</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.5672276616096497</v>
+        <v>0.003158915787935257</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0911707878112793</v>
+        <v>0.02473398111760616</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.6794325113296509</v>
+        <v>0.0547151044011116</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.6480445265769958</v>
+        <v>0.05320513993501663</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.8224154710769653</v>
+        <v>0.07035566866397858</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.03256687521934509</v>
+        <v>0.3227510452270508</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.2971625328063965</v>
+        <v>0.04495994001626968</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.4839464128017426</v>
+        <v>0.1436659693717957</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.8434230089187622</v>
+        <v>0.1540645360946655</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.1433228701353073</v>
+        <v>0.1419061273336411</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.209764376282692</v>
+        <v>0.05055313929915428</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.9082934856414795</v>
+        <v>0.07707223296165466</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.733456373214722</v>
+        <v>0.06787113845348358</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.4195917248725891</v>
+        <v>0.06855668872594833</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.182699054479599</v>
+        <v>0.1268159598112106</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.215134859085083</v>
+        <v>0.05177851393818855</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.03649246320128441</v>
+        <v>0.03347623348236084</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.5566588640213013</v>
+        <v>0.01763969659805298</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.127730131149292</v>
+        <v>0.0821554958820343</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.120358869433403</v>
+        <v>0.01619491912424564</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.07840336859226227</v>
+        <v>0.02265461906790733</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.5036885738372803</v>
+        <v>0.05393918976187706</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.325179785490036</v>
+        <v>0.06546429544687271</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.6816454529762268</v>
+        <v>0.03826242685317993</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.01931629329919815</v>
+        <v>0.04055286198854446</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.6653121709823608</v>
+        <v>0.08585294336080551</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.5091076493263245</v>
+        <v>0.11771509796381</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.6754854917526245</v>
+        <v>0.0250478982925415</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.1032193005084991</v>
+        <v>0.1131891310214996</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.2701081037521362</v>
+        <v>0.1289375871419907</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.9973961114883423</v>
+        <v>0.002578253857791424</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.496275931596756</v>
+        <v>0.05549636483192444</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01832996308803558</v>
+        <v>0.1172451376914978</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01778735220432281</v>
+        <v>0.0383625291287899</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.05340167507529259</v>
+        <v>0.07221308350563049</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.3934027254581451</v>
+        <v>0.02764089591801167</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.1489912867546082</v>
+        <v>0.1204183548688889</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.1922786831855774</v>
+        <v>0.01084907725453377</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.03210708871483803</v>
+        <v>0.02869170904159546</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.4357386231422424</v>
+        <v>0.02518289722502232</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.9985935091972351</v>
+        <v>0.05156632512807846</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.6321850419044495</v>
+        <v>0.1064116507768631</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.33897852897644</v>
+        <v>0.01783940009772778</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.8540271520614624</v>
+        <v>0.05485083907842636</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.7230164408683777</v>
+        <v>0.1256690323352814</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.960342884063721</v>
+        <v>0.00454508513212204</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.9849468469619751</v>
+        <v>0.0491492748260498</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.5401469469070435</v>
+        <v>0.06392652541399002</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.325735926628113</v>
+        <v>0.05007191002368927</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.3477264642715454</v>
+        <v>0.1214304566383362</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1802139580249786</v>
+        <v>0.09725242853164673</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.3594086468219757</v>
+        <v>0.0284875426441431</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.3435751497745514</v>
+        <v>0.06410981714725494</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.009688913822174072</v>
+        <v>0.007262926548719406</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.4556545317173004</v>
+        <v>0.09098457545042038</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.05342715233564377</v>
+        <v>0.005204042419791222</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.1556899398565292</v>
+        <v>0.04740612208843231</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.5131519436836243</v>
+        <v>0.09462130814790726</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.3874887824058533</v>
+        <v>0.04194024205207825</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.4265975952148438</v>
+        <v>0.02543787285685539</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.1082068905234337</v>
+        <v>0.1674106419086456</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.2379350662231445</v>
+        <v>0.02614318206906319</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.1353622525930405</v>
+        <v>0.01151648536324501</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.03059734776616096</v>
+        <v>0.06331392377614975</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.01818834617733955</v>
+        <v>0.03525810688734055</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.5799558758735657</v>
+        <v>0.05633174628019333</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.4115450978279114</v>
+        <v>0.03080183826386929</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.6312763094902039</v>
+        <v>0.0305244717746973</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.7915087938308716</v>
+        <v>0.01429415494203568</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.06361599266529083</v>
+        <v>0.02345776185393333</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.2238133549690247</v>
+        <v>0.03563233464956284</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.385308742523193</v>
+        <v>0.01421842910349369</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.3603518605232239</v>
+        <v>0.1131518483161926</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.3136266767978668</v>
+        <v>0.03839836269617081</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.4705468714237213</v>
+        <v>0.03121811710298061</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.6964852809906006</v>
+        <v>0.003888309001922607</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.9637262225151062</v>
+        <v>0.02423407137393951</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.03896381705999374</v>
+        <v>0.074107825756073</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.9647626876831055</v>
+        <v>0.01968163065612316</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.4476650655269623</v>
+        <v>0.02700474672019482</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.008004624396562576</v>
+        <v>0.01486407220363617</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.101690798997879</v>
+        <v>0.33025723695755</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.4082670211791992</v>
+        <v>0.06930599361658096</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.2887266278266907</v>
+        <v>0.1289466023445129</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.9209020137786865</v>
+        <v>0.05751974135637283</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.3141185641288757</v>
+        <v>0.05229764804244041</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.002484127879142761</v>
+        <v>0.0971909686923027</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.06555673480033875</v>
+        <v>0.003418691921979189</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.1486999243497849</v>
+        <v>0.05521217733621597</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.6214945912361145</v>
+        <v>0.02634765021502972</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.1340653151273727</v>
+        <v>0.08316390216350555</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.1425011456012726</v>
+        <v>0.03837844729423523</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0588759109377861</v>
+        <v>0.02017476037144661</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.6577688455581665</v>
+        <v>0.04700367152690887</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.2582576870918274</v>
+        <v>0.02922071889042854</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.09259310364723206</v>
+        <v>0.07032890617847443</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.6787776350975037</v>
+        <v>0.03056284785270691</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.06637395918369293</v>
+        <v>0.09748128801584244</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.2828078866004944</v>
+        <v>0.02856041491031647</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.4179172515869141</v>
+        <v>0.01247238181531429</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.04746006429195404</v>
+        <v>0.005575592163950205</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.3871561884880066</v>
+        <v>0.05953821912407875</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.519558310508728</v>
+        <v>0.1351049542427063</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.2635979652404785</v>
+        <v>0.03408599644899368</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.3816917538642883</v>
+        <v>0.1224398165941238</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.2372792810201645</v>
+        <v>0.1072151809930801</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.04796051979064941</v>
+        <v>0.009004319086670876</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.3564355373382568</v>
+        <v>0.3107121288776398</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.9169257283210754</v>
+        <v>0.02421917766332626</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.3296589851379395</v>
+        <v>0.02224634028971195</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.4452065825462341</v>
+        <v>0.04093867540359497</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.7125674486160278</v>
+        <v>0.03922334313392639</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.6705962419509888</v>
+        <v>0.04368168860673904</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.2801354229450226</v>
+        <v>0.04210484027862549</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.198425829410553</v>
+        <v>0.03012322075664997</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.188614726066589</v>
+        <v>0.02834988012909889</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.395210862159729</v>
+        <v>0.2702050805091858</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0720384418964386</v>
+        <v>0.1091209799051285</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.5671802759170532</v>
+        <v>0.2837390005588531</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.2804780304431915</v>
+        <v>0.005016971379518509</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.6695176959037781</v>
+        <v>0.04260839521884918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.830846786499023</v>
+        <v>0.0002274368307553232</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6766325235366821</v>
+        <v>0.002842312678694725</v>
       </c>
       <c r="C6" t="n">
-        <v>2.356353759765625</v>
+        <v>0.0005537428660318255</v>
       </c>
       <c r="D6" t="n">
-        <v>1.07892370223999</v>
+        <v>0.001248264918103814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.461641252040863</v>
+        <v>0.003785714972764254</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6452736854553223</v>
+        <v>0.001276548835448921</v>
       </c>
       <c r="G6" t="n">
-        <v>0.186865046620369</v>
+        <v>4.560861270874739e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.12072217464447</v>
+        <v>0.0003948268131352961</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304964900016785</v>
+        <v>0.0006119605386629701</v>
       </c>
       <c r="J6" t="n">
-        <v>4.206815242767334</v>
+        <v>0.0003415905521251261</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09603072702884674</v>
+        <v>0.0020996427629143</v>
       </c>
       <c r="L6" t="n">
-        <v>2.463600873947144</v>
+        <v>0.000324185733916238</v>
       </c>
       <c r="M6" t="n">
-        <v>0.541570782661438</v>
+        <v>0.00121883861720562</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7143523693084717</v>
+        <v>0.003263791557401419</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5412803292274475</v>
+        <v>0.001608444377779961</v>
       </c>
       <c r="P6" t="n">
-        <v>1.15640664100647</v>
+        <v>6.075628334656358e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5177751183509827</v>
+        <v>5.665991193382069e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.657568216323853</v>
+        <v>0.000591812189668417</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09824202954769135</v>
+        <v>0.0001927071862155572</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5498249530792236</v>
+        <v>0.0008358611958101392</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3847809731960297</v>
+        <v>5.860644159838557e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07290307432413101</v>
+        <v>5.704358409275301e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5889407396316528</v>
+        <v>0.0002329255366930738</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1509343087673187</v>
+        <v>0.0007995855994522572</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1983988583087921</v>
+        <v>0.0002208547375630587</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2368776798248291</v>
+        <v>3.997774911113083e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.08813157677650452</v>
+        <v>0.0001119092848966829</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3666673302650452</v>
+        <v>8.735377923585474e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6089346408843994</v>
+        <v>0.0005576619878411293</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.08369855582714081</v>
+        <v>0.0004668074252549559</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5460281372070312</v>
+        <v>0.000523227674420923</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3897703886032104</v>
+        <v>0.000417051138356328</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.4029530584812164</v>
+        <v>0.0004930690047331154</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7934721708297729</v>
+        <v>0.0003192043513990939</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.2392608076334</v>
+        <v>0.0004054026794619858</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.5168617367744446</v>
+        <v>0.0001142564869951457</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7961342930793762</v>
+        <v>0.0001323239994235337</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.405572772026062</v>
+        <v>0.0009189156116917729</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2433252483606339</v>
+        <v>0.0002589547075331211</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.5302761197090149</v>
+        <v>0.0003099441528320312</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.4585556983947754</v>
+        <v>3.949416714021936e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4527748823165894</v>
+        <v>0.0002012979530263692</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.08561262488365173</v>
+        <v>0.0002585452166385949</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.2517462074756622</v>
+        <v>0.0001795888529159129</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1765980124473572</v>
+        <v>0.0002033628115896136</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.457467794418335</v>
+        <v>0.0005559030687436461</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.2764495611190796</v>
+        <v>0.002469267696142197</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.9422836899757385</v>
+        <v>1.262283240066608e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.2075618505477905</v>
+        <v>9.787429007701576e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3715908825397491</v>
+        <v>0.001243580016307533</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1404545456171036</v>
+        <v>0.0006179498159326613</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.8492438793182373</v>
+        <v>0.0007385410717688501</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.9434736967086792</v>
+        <v>9.967136429622769e-05</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0806332528591156</v>
+        <v>0.00026065728161484</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.9044892191886902</v>
+        <v>0.0002151233056792989</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.5820479989051819</v>
+        <v>6.746322469552979e-06</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.7893823385238647</v>
+        <v>0.0002784536336548626</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.1560589671134949</v>
+        <v>0.0007011855486780405</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.2403953820466995</v>
+        <v>0.002309906063601375</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.4080458283424377</v>
+        <v>0.0005766526446677744</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.2072484195232391</v>
+        <v>0.0006410224596038461</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.5630589723587036</v>
+        <v>0.0002944618172477931</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.7411430478096008</v>
+        <v>0.0008418395882472396</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.6485953330993652</v>
+        <v>0.0002607188071124256</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.281977653503418</v>
+        <v>0.0002673990675248206</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.2012682557106018</v>
+        <v>0.0001085572876036167</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04556373506784439</v>
+        <v>3.886858758050948e-05</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.6159749031066895</v>
+        <v>0.0006700328085571527</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.3944721221923828</v>
+        <v>0.0004123064572922885</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.2322992384433746</v>
+        <v>0.0005967181641608477</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.3478255271911621</v>
+        <v>0.0002992984373122454</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.2639451026916504</v>
+        <v>1.373997656628489e-05</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.704815864562988</v>
+        <v>0.0003736583166755736</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0699414387345314</v>
+        <v>0.001411464298143983</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.6225738525390625</v>
+        <v>0.0007006250671111047</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.3962175846099854</v>
+        <v>0.0003437288105487823</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.111334323883057</v>
+        <v>0.0007515576435253024</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.275296151638031</v>
+        <v>0.0002234805142506957</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.1908624172210693</v>
+        <v>0.0002799730864353478</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.5695703029632568</v>
+        <v>8.862819231580943e-05</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.06874699890613556</v>
+        <v>1.08516906038858e-05</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.004037499427795</v>
+        <v>6.031539669493213e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.1987747848033905</v>
+        <v>0.0004898563493043184</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.4487949013710022</v>
+        <v>2.67646464635618e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.3385295867919922</v>
+        <v>0.0003042568569071591</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.2713885903358459</v>
+        <v>0.0003928141377400607</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.181672215461731</v>
+        <v>0.0002538219268899411</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.1664793491363525</v>
+        <v>0.0002981825091410428</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.03503230214118958</v>
+        <v>1.873153814813122e-05</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.1569447070360184</v>
+        <v>3.546631342032924e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.4069578647613525</v>
+        <v>0.0004695749667007476</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.1796550899744034</v>
+        <v>5.810030415887013e-05</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0330631397664547</v>
+        <v>7.823322812328115e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.4866588711738586</v>
+        <v>0.0003192245494574308</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.9535327553749084</v>
+        <v>0.0002108110493281856</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.1105951145291328</v>
+        <v>0.0001337421854259446</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.6469738483428955</v>
+        <v>0.0005007900181226432</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.8381684422492981</v>
+        <v>0.0008646589703857899</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.4180807173252106</v>
+        <v>0.0002400052035227418</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.027414202690125</v>
+        <v>5.007898289477453e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03400369733572006</v>
+        <v>0.0002837006468325853</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.4866338968276978</v>
+        <v>6.833484076196328e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.2147682011127472</v>
+        <v>0.0003929586382582784</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.1979583203792572</v>
+        <v>0.0004175247449893504</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.1438030600547791</v>
+        <v>0.0003541208279784769</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.2295323759317398</v>
+        <v>0.0001914450549520552</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.08979712426662445</v>
+        <v>9.264302934752777e-05</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.1318776160478592</v>
+        <v>0.0001328245707554743</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.2334508895874023</v>
+        <v>0.0004467068647500128</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.325249552726746</v>
+        <v>0.0007010411354713142</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.2162001430988312</v>
+        <v>0.0001303248864132911</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.837867796421051</v>
+        <v>0.0003451693046372384</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.1651639342308044</v>
+        <v>0.0006655234028585255</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.9768369197845459</v>
+        <v>0.0001905207755044103</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.2778013646602631</v>
+        <v>0.0006801380659453571</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.3032318651676178</v>
+        <v>0.0003036634880118072</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.3065536916255951</v>
+        <v>0.0005416590138338506</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.002496927976608276</v>
+        <v>3.675624611787498e-06</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.5664224624633789</v>
+        <v>6.670346010650974e-06</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.085345059633255</v>
+        <v>0.0001021772404783405</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.07290138304233551</v>
+        <v>0.0008271377300843596</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.09747424721717834</v>
+        <v>0.0001551387686049566</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.06321366131305695</v>
+        <v>0.0008131394861266017</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.4258742332458496</v>
+        <v>0.0003381199203431606</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.4865148663520813</v>
+        <v>0.0001366391516057774</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.3607434928417206</v>
+        <v>0.0001257689873455092</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.35686856508255</v>
+        <v>2.150515501853079e-05</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.3303349912166595</v>
+        <v>0.0002026146394200623</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.1657628417015076</v>
+        <v>0.0002666743821464479</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.3972488045692444</v>
+        <v>0.0004754777764901519</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.5143735408782959</v>
+        <v>0.000254522543400526</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.1115524023771286</v>
+        <v>0.0003256354248151183</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.1113385781645775</v>
+        <v>0.0001833268033806235</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.04695124551653862</v>
+        <v>5.09302262798883e-05</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.290562242269516</v>
+        <v>0.0002106026513502002</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.220041155815125</v>
+        <v>0.0003502616891637444</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.1319141983985901</v>
+        <v>0.0003298420924693346</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.512986958026886</v>
+        <v>1.003325996862259e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.3955661356449127</v>
+        <v>1.470805727876723e-06</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.2330697476863861</v>
+        <v>0.0007090548751875758</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.1888791024684906</v>
+        <v>0.0001333745021838695</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.3106084167957306</v>
+        <v>0.0004177807713858783</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.1098200678825378</v>
+        <v>5.799303835374303e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.1812405586242676</v>
+        <v>0.0002223299234174192</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.5122501850128174</v>
+        <v>0.0001526660053059459</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.2496791779994965</v>
+        <v>5.171928569325246e-05</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.6039875745773315</v>
+        <v>0.0004832688136957586</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.6476334929466248</v>
+        <v>0.0003497929428704083</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.5184335708618164</v>
+        <v>0.0001730083313304931</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.4187318980693817</v>
+        <v>0.0005536038079299033</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.4280920624732971</v>
+        <v>9.140677138930187e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.2067546993494034</v>
+        <v>0.0001338096772087738</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.5460925698280334</v>
+        <v>0.0002382436650805175</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.961669921875</v>
+        <v>0.0001293982932111248</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02282936125993729</v>
+        <v>0.0003335376677569002</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.4617813229560852</v>
+        <v>3.534351344569586e-05</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.1973675191402435</v>
+        <v>0.0004042098007630557</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.05653437972068787</v>
+        <v>0.000321363506373018</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.01532182469964027</v>
+        <v>0.0003529430250637233</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.2154998183250427</v>
+        <v>0.0002893572964239866</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.037515789270401</v>
+        <v>3.032542372238822e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.1211571097373962</v>
+        <v>3.753013152163476e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.4910391867160797</v>
+        <v>0.0002083138097077608</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.711736798286438</v>
+        <v>0.0002723721554502845</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.2369983792304993</v>
+        <v>0.0004337184363976121</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.4938883185386658</v>
+        <v>0.0005971878999844193</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.2035291492938995</v>
+        <v>8.720748155610636e-05</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.7182689309120178</v>
+        <v>0.0001772311661625281</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.7082161903381348</v>
+        <v>0.000399072072468698</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.1774721145629883</v>
+        <v>0.0001588973973412067</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.122863657772541</v>
+        <v>0.0004462553188204765</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.03510701656341553</v>
+        <v>0.0001836188894230872</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.8139389753341675</v>
+        <v>0.0008708111708983779</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.3117677569389343</v>
+        <v>0.0002830611483659595</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.5263195037841797</v>
+        <v>0.001027777325361967</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.127666175365448</v>
+        <v>0.0001322495809290558</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.2776891589164734</v>
+        <v>0.0001613296917639673</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.4873546361923218</v>
+        <v>0.0002166579506592825</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.5412678718566895</v>
+        <v>8.783623343333602e-06</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.002792969346046448</v>
+        <v>0.0001913603045977652</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.2198908478021622</v>
+        <v>0.000210235797567293</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.7704751491546631</v>
+        <v>0.0003270913730375469</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.2220456600189209</v>
+        <v>0.0004626896989066154</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.783352792263031</v>
+        <v>5.139583299751393e-05</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.8891834616661072</v>
+        <v>0.0003118437889497727</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.4900307059288025</v>
+        <v>0.0002294376754434779</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.06473620980978012</v>
+        <v>0.0002263431233586743</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.03322619199752808</v>
+        <v>0.0002184889890486374</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.09055846929550171</v>
+        <v>0.0004738817806355655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.455152055830695e-06</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.025371021678438e-06</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.513121530180797e-05</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8.066535883699544e-06</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.212045183114242e-05</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.484071839920944e-06</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.869043889106251e-06</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.892101166362409e-06</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.259666795609519e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.763340489764232e-06</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.246477591455914e-06</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.612779594026506e-05</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.773131190129789e-06</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.028634455404244e-05</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.997189641173463e-06</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.347103524400154e-06</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16012449527625e-06</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5.609667641692795e-05</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.700344445358496e-06</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.753000671873451e-07</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.484526814645506e-06</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.233703187608626e-06</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.559997475756973e-07</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.999469304792001e-06</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.559568762691924e-06</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.351975909841713e-06</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.136194259743206e-05</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.168151463090908e-06</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.370717983372742e-06</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.673532086802879e-06</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.422447439836105e-07</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.029156687262002e-06</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.727693405788159e-06</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.843042345077265e-06</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.06554198282538e-05</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.62888657845906e-06</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.570938477219897e-06</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.761030373221729e-06</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.352703505603131e-06</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.684642357868142e-06</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.524511041381629e-06</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.21038372325711e-06</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.239841705886647e-06</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.976895646293997e-06</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.867700343107572e-06</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.721065018500667e-06</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.244841875333805e-06</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.095403371844441e-05</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.081786760754767e-06</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.493446598033188e-05</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.268570122192614e-05</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.512924766051583e-07</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.374574026158371e-06</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.43589031722513e-05</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.722718585981056e-06</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>7.607985480717616e-06</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.449806859454839e-05</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.10483197204303e-05</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>8.021464054763783e-06</v>
+        <v>0</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.864776777438237e-06</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.017688873616862e-06</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.186447202097042e-06</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.584550955158193e-05</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>3.414222646824783e-07</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>4.143354090047069e-06</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>7.79254605731694e-06</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.960451072591241e-07</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.264174443349475e-05</v>
+        <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>6.022185061738128e-06</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>1.233814600709593e-06</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.289683405047981e-05</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>9.066890015674289e-06</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>6.487206064775819e-06</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>3.168319608448655e-06</v>
+        <v>0</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.093461378331995e-05</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.371234697624459e-06</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>2.071328708552755e-06</v>
+        <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4.707882908405736e-06</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.172298084384238e-06</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>9.828841029957402e-06</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.946010343090165e-05</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.34359049500199e-07</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>6.319173735391814e-06</v>
+        <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>7.340511274378514e-06</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>4.714426609098155e-07</v>
+        <v>0</v>
       </c>
       <c r="CH7" t="n">
-        <v>4.629356681107311e-06</v>
+        <v>0</v>
       </c>
       <c r="CI7" t="n">
-        <v>4.369120233604917e-06</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4.723668553197058e-06</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
-        <v>7.236612873384729e-07</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>9.14063275558874e-06</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>1.077455181075493e-05</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>6.682098501187284e-06</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
-        <v>7.350668056460563e-06</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.33293833641801e-05</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.439335387156461e-06</v>
+        <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.107270802298444e-06</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>5.376180524763186e-06</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>2.35300376516534e-06</v>
+        <v>0</v>
       </c>
       <c r="CU7" t="n">
-        <v>9.279674486606382e-06</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>4.791656920133391e-07</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>3.248531811550492e-06</v>
+        <v>0</v>
       </c>
       <c r="CX7" t="n">
-        <v>6.046511771273799e-06</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.770389985722431e-06</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>2.263900569232646e-06</v>
+        <v>0</v>
       </c>
       <c r="DA7" t="n">
-        <v>6.399619451258332e-06</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>4.89725016450393e-06</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.434560317647993e-06</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>8.796832844382152e-06</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>1.325357789028203e-05</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>2.138922354788519e-05</v>
+        <v>0</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.094501178362407e-05</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>8.831075319903903e-06</v>
+        <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>4.464074663701467e-06</v>
+        <v>0</v>
       </c>
       <c r="DJ7" t="n">
-        <v>5.773867542302469e-06</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>1.140887206929619e-06</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.176709929495701e-06</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>2.598501168904477e-06</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>5.004899776395177e-06</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>1.335045794803591e-06</v>
+        <v>0</v>
       </c>
       <c r="DP7" t="n">
-        <v>8.273457297036657e-07</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>2.741418938967399e-06</v>
+        <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.607543140380585e-06</v>
+        <v>0</v>
       </c>
       <c r="DS7" t="n">
-        <v>4.111234829906607e-06</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>2.908231863330002e-06</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>5.669556230714079e-06</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>4.864041329710744e-06</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.443729954393348e-06</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>8.656160389364231e-06</v>
+        <v>0</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.060415797837777e-06</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>2.805068561428925e-06</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>7.478412271666457e-07</v>
+        <v>0</v>
       </c>
       <c r="EB7" t="n">
-        <v>4.720376637123991e-06</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>5.50588219994097e-06</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>2.820863073793589e-06</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>3.059090886381455e-06</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>2.449255134706618e-06</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>8.02146769274259e-06</v>
+        <v>0</v>
       </c>
       <c r="EH7" t="n">
-        <v>7.894230293459259e-06</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>4.654842541640392e-06</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>8.031687684706412e-06</v>
+        <v>0</v>
       </c>
       <c r="EK7" t="n">
-        <v>1.01437653938774e-05</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>3.258572178310715e-06</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
-        <v>6.6913407863467e-06</v>
+        <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.048350259225117e-05</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>5.346399120753631e-06</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>4.463057848624885e-06</v>
+        <v>0</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.140777499131218e-06</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>1.820866486923478e-06</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>5.587036753240682e-07</v>
+        <v>0</v>
       </c>
       <c r="ET7" t="n">
-        <v>2.174743940486223e-07</v>
+        <v>0</v>
       </c>
       <c r="EU7" t="n">
-        <v>4.279119821148925e-06</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.377702687932469e-06</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>1.586186408530921e-05</v>
+        <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>9.953181461241911e-07</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>2.774272616079543e-06</v>
+        <v>0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>5.632170541503001e-06</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>5.414424890659575e-07</v>
+        <v>0</v>
       </c>
       <c r="FB7" t="n">
-        <v>4.966052983945701e-06</v>
+        <v>0</v>
       </c>
       <c r="FC7" t="n">
-        <v>5.813540610688506e-06</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>3.255734100093832e-06</v>
+        <v>0</v>
       </c>
       <c r="FE7" t="n">
-        <v>7.036705937935039e-07</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.16020928544458e-05</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>6.666245440101193e-07</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>6.053139259165619e-06</v>
+        <v>0</v>
       </c>
       <c r="FI7" t="n">
-        <v>1.003963188850321e-05</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>2.962448775178927e-07</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>7.495086720155086e-07</v>
+        <v>0</v>
       </c>
       <c r="FL7" t="n">
-        <v>7.645501682418399e-06</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>2.783996023936197e-06</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>8.533968866686337e-06</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>1.210532218465232e-06</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.097769654734293e-06</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>6.242789822863415e-07</v>
+        <v>0</v>
       </c>
       <c r="FR7" t="n">
-        <v>4.137235464440892e-06</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>2.790708094835281e-06</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>4.681446625909302e-06</v>
+        <v>0</v>
       </c>
       <c r="FU7" t="n">
-        <v>1.408287971571553e-06</v>
+        <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>6.418928933271673e-06</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.139370707254784e-07</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>1.209744641528232e-05</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>4.32841079600621e-06</v>
+        <v>0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>4.256575721228728e-06</v>
+        <v>0</v>
       </c>
       <c r="GA7" t="n">
-        <v>4.075624019606039e-06</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>1.200237238663249e-05</v>
+        <v>0</v>
       </c>
       <c r="GC7" t="n">
-        <v>7.274392373801675e-06</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>6.940538696653675e-06</v>
+        <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>6.066051355446689e-06</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.117816827900242e-05</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>3.443146852077916e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.3584462702274323</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.790201306343079</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.03772230446338654</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.041835904121399</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.6043265461921692</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.430549681186676</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.7120866775512695</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.4751811325550079</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.001221202313899994</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.3823773562908173</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.197782397270203</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.09421571344137192</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.4771375060081482</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.7639281749725342</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.8030973672866821</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.5796977877616882</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.06353528797626495</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.1667407006025314</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.07327535003423691</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.09876465797424316</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.1709635555744171</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.4820859134197235</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.6075873374938965</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.2065392881631851</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.4466349482536316</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.2383557856082916</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.1928972452878952</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.1693395972251892</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.1042802408337593</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.02347533032298088</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.1278138756752014</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.09040240943431854</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.1112780943512917</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.2271540313959122</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.1887356340885162</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.1286306977272034</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.2793288826942444</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.3790154755115509</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.1124932393431664</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.002156505361199379</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.1991277039051056</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.1616044193506241</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.2183799892663956</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.1684670001268387</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.1297468841075897</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.004093416035175323</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1.110724925994873</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.1383942365646362</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.5382866263389587</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.5033116936683655</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.3210770189762115</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.07106883823871613</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.2914391756057739</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.2396904677152634</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.03799057751893997</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.3389694690704346</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.1788178384304047</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.2191516160964966</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.2069528251886368</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.1195977926254272</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.360312819480896</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>0.1519123017787933</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>0.03095497936010361</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.3402566611766815</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.1517529785633087</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.1135684996843338</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.1980616897344589</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.1419252157211304</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.01267870515584946</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>0.1334854513406754</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>0.04639210551977158</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>0.1305186897516251</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>0.1040032655000687</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.7122942209243774</v>
       </c>
       <c r="BW8" t="n">
-        <v>0</v>
+        <v>0.05812536180019379</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.4522306323051453</v>
       </c>
       <c r="BY8" t="n">
-        <v>0</v>
+        <v>0.7634901404380798</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>0.2728298604488373</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>0.2957765758037567</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>0.07580991089344025</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>0.2064163386821747</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>0.1682048887014389</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>0.2248909473419189</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>0.1570574045181274</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>0.1033672392368317</v>
       </c>
       <c r="CH8" t="n">
-        <v>0</v>
+        <v>0.03121338784694672</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.2323069274425507</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>0.03103935718536377</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>0.07549037784337997</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>0.199411928653717</v>
       </c>
       <c r="CM8" t="n">
-        <v>0</v>
+        <v>0.1659461706876755</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>0.112728513777256</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>0.1509620398283005</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>0.2490007281303406</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0</v>
+        <v>0.1439545750617981</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>0.009540528059005737</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>0.4608711004257202</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>0.3410638868808746</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>0.09880004078149796</v>
       </c>
       <c r="CV8" t="n">
-        <v>0</v>
+        <v>0.1498150378465652</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>0.2329525053501129</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>0.0879199355840683</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.2085323929786682</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0</v>
+        <v>0.0002793781459331512</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.3379155099391937</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>0.004541285336017609</v>
       </c>
       <c r="DC8" t="n">
-        <v>0</v>
+        <v>0.1058250516653061</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>0.1230523809790611</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>0.1563720852136612</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>0.0708807110786438</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>0.3108603656291962</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.5963927507400513</v>
       </c>
       <c r="DI8" t="n">
-        <v>0</v>
+        <v>0.2383430600166321</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.04670080542564392</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>0.4257674217224121</v>
       </c>
       <c r="DL8" t="n">
-        <v>0</v>
+        <v>0.07314774394035339</v>
       </c>
       <c r="DM8" t="n">
-        <v>0</v>
+        <v>0.1433699131011963</v>
       </c>
       <c r="DN8" t="n">
-        <v>0</v>
+        <v>0.2128707766532898</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>0.2631866931915283</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>0.04957582429051399</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>0.1311859339475632</v>
       </c>
       <c r="DR8" t="n">
-        <v>0</v>
+        <v>0.06307494640350342</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.4292253255844116</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>0.02953950315713882</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>0.4973882138729095</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>0.3441393971443176</v>
       </c>
       <c r="DW8" t="n">
-        <v>0</v>
+        <v>0.1271419078111649</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.175093874335289</v>
       </c>
       <c r="DY8" t="n">
-        <v>0</v>
+        <v>0.3575102090835571</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.02353525906801224</v>
       </c>
       <c r="EA8" t="n">
-        <v>0</v>
+        <v>0.2172643840312958</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>0.326718807220459</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>0.08550725877285004</v>
       </c>
       <c r="ED8" t="n">
-        <v>0</v>
+        <v>0.0259057953953743</v>
       </c>
       <c r="EE8" t="n">
-        <v>0</v>
+        <v>0.05054126679897308</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>0.01378239691257477</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>0.003021463751792908</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>0.07344658672809601</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>0.1156003549695015</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0</v>
+        <v>0.1927606910467148</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.2708601057529449</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>0.08969967067241669</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>0.05691050738096237</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>0.06658905744552612</v>
       </c>
       <c r="EO8" t="n">
-        <v>0</v>
+        <v>0.04282408952713013</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>0.01389267295598984</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0</v>
+        <v>0.01655787229537964</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.004994690418243408</v>
       </c>
       <c r="ES8" t="n">
-        <v>0</v>
+        <v>0.2102652192115784</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.8129996061325073</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>0.1665838062763214</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
+        <v>0.6360155344009399</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>0.2007069289684296</v>
       </c>
       <c r="EX8" t="n">
-        <v>0</v>
+        <v>0.1536104828119278</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>0.1353655159473419</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0</v>
+        <v>0.0640292689204216</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>0.1757273375988007</v>
       </c>
       <c r="FB8" t="n">
-        <v>0</v>
+        <v>0.0651281476020813</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.2721007168292999</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>0.0553864911198616</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>0.07649904489517212</v>
       </c>
       <c r="FF8" t="n">
-        <v>0</v>
+        <v>0.1292133331298828</v>
       </c>
       <c r="FG8" t="n">
-        <v>0</v>
+        <v>0.06224418804049492</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>0.1817152798175812</v>
       </c>
       <c r="FI8" t="n">
-        <v>0</v>
+        <v>0.1365454494953156</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>0.2886818051338196</v>
       </c>
       <c r="FK8" t="n">
-        <v>0</v>
+        <v>0.06435902416706085</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.2184914201498032</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>0.01616152375936508</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>0.01635536551475525</v>
       </c>
       <c r="FO8" t="n">
-        <v>0</v>
+        <v>0.2399944514036179</v>
       </c>
       <c r="FP8" t="n">
-        <v>0</v>
+        <v>0.03934597223997116</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.09992217272520065</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>0.3184441328048706</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>0.02179103530943394</v>
       </c>
       <c r="FT8" t="n">
-        <v>0</v>
+        <v>1.099899768829346</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.097757488489151</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>0.05316286534070969</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>0.1861234605312347</v>
       </c>
       <c r="FX8" t="n">
-        <v>0</v>
+        <v>0.06286634504795074</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>0.1829564720392227</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.02320719510316849</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>0.1109287738800049</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>0.1372466683387756</v>
       </c>
       <c r="GC8" t="n">
-        <v>0</v>
+        <v>0.1084922552108765</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>0.0232217013835907</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>1.025578022003174</v>
       </c>
       <c r="GF8" t="n">
-        <v>0</v>
+        <v>0.04747212305665016</v>
       </c>
       <c r="GG8" t="n">
+        <v>0.3383513689041138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.006650473922491074</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04517903551459312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001158667262643576</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03780137747526169</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.007590645458549261</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00267395656555891</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.008507669903337955</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.006280767265707254</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00415507610887289</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.002890365198254585</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.04036259651184082</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003952751401811838</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02559362538158894</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01000096742063761</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.00609961710870266</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.007696296088397503</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00621708482503891</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.002519732574000955</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.003405079012736678</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.006450075656175613</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.004085142631083727</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.002301691565662622</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0007140262750908732</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.007053637877106667</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001908305799588561</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.006322821602225304</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.005255405325442553</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001429782714694738</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.005192716140300035</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.003710927907377481</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.009953509084880352</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.004648717120289803</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.004898696672171354</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0003261397359892726</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.003268431173637509</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.002968828659504652</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.001409509219229221</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.008676823228597641</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0005848662694916129</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.00213992060162127</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.003023987635970116</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.003695477498695254</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002187121426686645</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.001404643524438143</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.003895334200933576</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.009956039488315582</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.02984884008765221</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.001448214869014919</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.02076743915677071</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.004966715350747108</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0005126604228280485</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.001499284408055246</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.002207892015576363</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.00273928209207952</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.004331700969487429</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.007981556467711926</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.01034763548523188</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.002989191096276045</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.01465189643204212</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.005480934400111437</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.004431193228811026</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.006547395139932632</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.0005314149893820286</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.005327035672962666</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.001511877751909196</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.00324410549364984</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.0001263999147340655</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.001708510331809521</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.005709484685212374</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.002634902484714985</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.0008641996537335217</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.001760450890287757</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.00973074696958065</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.01565752550959587</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.0006670544971711934</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.00549229932948947</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.003493249183520675</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.005090160295367241</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.002375452313572168</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.002616409910842776</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.005686879623681307</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.001753511256538332</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.006571813486516476</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.00280322995968163</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.007081395480781794</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.002637945581227541</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.002155889291316271</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.00142458884511143</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.0007190531468950212</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.003901534015312791</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.01067361608147621</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.000696871371474117</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.003555400064215064</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.001774667645804584</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.002100872807204723</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.01052268128842115</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.01059695519506931</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.01090771704912186</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.0019631611648947</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.001923168427310884</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.006287897005677223</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.004511800594627857</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.008428126573562622</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.002217772882431746</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.001882764976471663</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.0009030061773955822</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.001947586191818118</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.002695522271096706</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.002601590938866138</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.0137339998036623</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.001360094174742699</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.02018324285745621</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.01842643879354</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.0002064525033347309</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.01242582034319639</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.006826404482126236</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.0005279461620375514</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.002182961441576481</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.0003410240169614553</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.005004147067666054</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.0002064256987068802</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.0001148253213614225</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.00253674853593111</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>8.912489283829927e-05</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.0006449827924370766</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.004697220865637064</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0.001338845351710916</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.0006436145631596446</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.00677150534465909</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.004949093330651522</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.001740171108394861</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.001502810628153384</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.005648175254464149</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.0005632623215205967</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0.004906668327748775</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.002882678061723709</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.00640381220728159</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.005558911710977554</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.006705512292683125</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.003293289337307215</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.002587767317891121</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0.001592344604432583</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0.00162488513160497</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0.002930282382294536</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.003683761693537235</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.006361368112266064</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.00693309772759676</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.007024113554507494</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.003318948438391089</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.01102184690535069</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.004269557073712349</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0.003255891613662243</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0.002277483697980642</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.001048530451953411</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0.006853207480162382</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>0.00330025190487504</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0.008025646209716797</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.003293920075520873</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.001945237629115582</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0.002086658962070942</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0.002047065878286958</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0.003285499289631844</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.001986041432246566</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0.003666645614430308</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0.001954708248376846</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0.00404489366337657</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.00121654337272048</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>0.006176939699798822</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0.003329348051920533</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0.00119365646969527</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0.0001249221386387944</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0.001697267056442797</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0.007298729382455349</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0.01185742765665054</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0.003118273569270968</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>0.001010352512821555</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0.004470323212444782</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0.0009519205195829272</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>0.004712838679552078</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0.003747039008885622</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0.001419703243300319</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0.002678088843822479</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>8.661659376230091e-05</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>0.00361375673674047</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0.004935003351420164</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0.003754241392016411</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>0.01914030313491821</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0.004267092328518629</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0.003734419122338295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG10" t="n">
         <v>0</v>
       </c>
     </row>
